--- a/analysis/edcr/out/top_f1/copper_shift_new_20_results.xlsx
+++ b/analysis/edcr/out/top_f1/copper_shift_new_20_results.xlsx
@@ -79,16 +79,16 @@
     <t>Label</t>
   </si>
   <si>
-    <t>CNN_32_filters_7_kernels_predictions</t>
-  </si>
-  <si>
-    <t>CNN_128_filters_7_kernels_predictions</t>
-  </si>
-  <si>
-    <t>CNN_Attention_64_filters_5_kernels_predictions</t>
-  </si>
-  <si>
-    <t>CNN_Attention_64_filters_7_kernels_predictions</t>
+    <t>CNN_Attention_32_filters_5_kernels_predictions</t>
+  </si>
+  <si>
+    <t>CNN_32_filters_3_kernels_predictions</t>
+  </si>
+  <si>
+    <t>CNN_64_filters_7_kernels_predictions</t>
+  </si>
+  <si>
+    <t>CNN_Attention_256_filters_5_kernels_predictions</t>
   </si>
   <si>
     <t>LSTM</t>
@@ -558,52 +558,52 @@
         <v>50</v>
       </c>
       <c r="E2">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="F2">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="G2">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="H2">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="I2">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="J2">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="K2">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L2">
-        <v>0.6266666666666667</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="M2">
-        <v>0.6811594202898551</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="N2">
-        <v>0.6527777777777777</v>
+        <v>0.7826086956521741</v>
       </c>
       <c r="O2">
-        <v>0.01022831050228312</v>
+        <v>0.007655502392344471</v>
       </c>
       <c r="P2">
-        <v>0.02898550724637683</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="Q2">
-        <v>0.01897496087636918</v>
+        <v>0.02154674874951923</v>
       </c>
       <c r="R2">
-        <v>0.01659259259259262</v>
+        <v>0.009791921664626649</v>
       </c>
       <c r="S2">
-        <v>0.04444444444444447</v>
+        <v>0.04651162790697669</v>
       </c>
       <c r="T2">
-        <v>0.02993827160493804</v>
+        <v>0.02831142568250783</v>
       </c>
       <c r="U2" t="s">
         <v>31</v>
@@ -623,52 +623,52 @@
         <v>50</v>
       </c>
       <c r="E3">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="F3">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="G3">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="H3">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="I3">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="J3">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="K3">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L3">
-        <v>0.6216216216216216</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="M3">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="N3">
-        <v>0.6433566433566433</v>
+        <v>0.7826086956521741</v>
       </c>
       <c r="O3">
-        <v>0.005183265457238018</v>
+        <v>0.007655502392344471</v>
       </c>
       <c r="P3">
-        <v>0.01449275362318836</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="Q3">
-        <v>0.009553826455234837</v>
+        <v>0.02154674874951923</v>
       </c>
       <c r="R3">
-        <v>0.008408408408408339</v>
+        <v>0.009791921664626649</v>
       </c>
       <c r="S3">
-        <v>0.02222222222222215</v>
+        <v>0.04651162790697669</v>
       </c>
       <c r="T3">
-        <v>0.01507381507381496</v>
+        <v>0.02831142568250783</v>
       </c>
       <c r="U3" t="s">
         <v>31</v>
@@ -688,52 +688,52 @@
         <v>50</v>
       </c>
       <c r="E4">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="F4">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="G4">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="H4">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="I4">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="J4">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="K4">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L4">
-        <v>0.6216216216216216</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="M4">
-        <v>0.6666666666666666</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="N4">
-        <v>0.6433566433566433</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="O4">
-        <v>0.005183265457238018</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.01449275362318836</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.009553826455234837</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.008408408408408339</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.02222222222222215</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.01507381507381496</v>
+        <v>0</v>
       </c>
       <c r="U4" t="s">
         <v>31</v>
@@ -753,52 +753,52 @@
         <v>50</v>
       </c>
       <c r="E5">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="F5">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="G5">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="H5">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="I5">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="J5">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="K5">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L5">
-        <v>0.6216216216216216</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="M5">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="N5">
-        <v>0.6433566433566433</v>
+        <v>0.7826086956521741</v>
       </c>
       <c r="O5">
-        <v>0.005183265457238018</v>
+        <v>0.007655502392344471</v>
       </c>
       <c r="P5">
-        <v>0.01449275362318836</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="Q5">
-        <v>0.009553826455234837</v>
+        <v>0.02154674874951923</v>
       </c>
       <c r="R5">
-        <v>0.008408408408408339</v>
+        <v>0.009791921664626649</v>
       </c>
       <c r="S5">
-        <v>0.02222222222222215</v>
+        <v>0.04651162790697669</v>
       </c>
       <c r="T5">
-        <v>0.01507381507381496</v>
+        <v>0.02831142568250783</v>
       </c>
       <c r="U5" t="s">
         <v>31</v>
@@ -818,52 +818,52 @@
         <v>50</v>
       </c>
       <c r="E6">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="F6">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="G6">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="H6">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="I6">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="J6">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="K6">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L6">
-        <v>0.6216216216216216</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="M6">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="N6">
-        <v>0.6433566433566433</v>
+        <v>0.7826086956521741</v>
       </c>
       <c r="O6">
-        <v>0.005183265457238018</v>
+        <v>0.007655502392344471</v>
       </c>
       <c r="P6">
-        <v>0.01449275362318836</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="Q6">
-        <v>0.009553826455234837</v>
+        <v>0.02154674874951923</v>
       </c>
       <c r="R6">
-        <v>0.008408408408408339</v>
+        <v>0.009791921664626649</v>
       </c>
       <c r="S6">
-        <v>0.02222222222222215</v>
+        <v>0.04651162790697669</v>
       </c>
       <c r="T6">
-        <v>0.01507381507381496</v>
+        <v>0.02831142568250783</v>
       </c>
       <c r="U6" t="s">
         <v>31</v>
@@ -880,52 +880,52 @@
         <v>50</v>
       </c>
       <c r="E7">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="F7">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="G7">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="H7">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="I7">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="J7">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="K7">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L7">
-        <v>0.6282051282051282</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="M7">
-        <v>0.7101449275362319</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="N7">
-        <v>0.6666666666666667</v>
+        <v>0.7719298245614034</v>
       </c>
       <c r="O7">
-        <v>0.01176677204074461</v>
+        <v>0.003896103896103842</v>
       </c>
       <c r="P7">
-        <v>0.05797101449275366</v>
+        <v>0.01724137931034475</v>
       </c>
       <c r="Q7">
-        <v>0.03286384976525825</v>
+        <v>0.01086787765874853</v>
       </c>
       <c r="R7">
-        <v>0.01908831908831904</v>
+        <v>0.004983388704318867</v>
       </c>
       <c r="S7">
-        <v>0.08888888888888895</v>
+        <v>0.02325581395348827</v>
       </c>
       <c r="T7">
-        <v>0.0518518518518519</v>
+        <v>0.01427988576091376</v>
       </c>
       <c r="U7" t="s">
         <v>31</v>
@@ -945,52 +945,52 @@
         <v>50</v>
       </c>
       <c r="E8">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="F8">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="G8">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="H8">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="I8">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="J8">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="K8">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L8">
-        <v>0.6282051282051282</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="M8">
-        <v>0.7101449275362319</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="N8">
-        <v>0.6666666666666667</v>
+        <v>0.7719298245614034</v>
       </c>
       <c r="O8">
-        <v>0.01176677204074461</v>
+        <v>0.003896103896103842</v>
       </c>
       <c r="P8">
-        <v>0.05797101449275366</v>
+        <v>0.01724137931034475</v>
       </c>
       <c r="Q8">
-        <v>0.03286384976525825</v>
+        <v>0.01086787765874853</v>
       </c>
       <c r="R8">
-        <v>0.01908831908831904</v>
+        <v>0.004983388704318867</v>
       </c>
       <c r="S8">
-        <v>0.08888888888888895</v>
+        <v>0.02325581395348827</v>
       </c>
       <c r="T8">
-        <v>0.0518518518518519</v>
+        <v>0.01427988576091376</v>
       </c>
       <c r="U8" t="s">
         <v>31</v>
@@ -1010,52 +1010,52 @@
         <v>50</v>
       </c>
       <c r="E9">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="F9">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="G9">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="H9">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="I9">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="J9">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="K9">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L9">
-        <v>0.6233766233766234</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="M9">
-        <v>0.6956521739130435</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="N9">
-        <v>0.6575342465753424</v>
+        <v>0.7719298245614034</v>
       </c>
       <c r="O9">
-        <v>0.006938267212239779</v>
+        <v>0.003896103896103842</v>
       </c>
       <c r="P9">
-        <v>0.04347826086956519</v>
+        <v>0.01724137931034475</v>
       </c>
       <c r="Q9">
-        <v>0.02373142967393393</v>
+        <v>0.01086787765874853</v>
       </c>
       <c r="R9">
-        <v>0.0112554112554112</v>
+        <v>0.004983388704318867</v>
       </c>
       <c r="S9">
-        <v>0.06666666666666662</v>
+        <v>0.02325581395348827</v>
       </c>
       <c r="T9">
-        <v>0.0374429223744291</v>
+        <v>0.01427988576091376</v>
       </c>
       <c r="U9" t="s">
         <v>31</v>
@@ -1075,52 +1075,52 @@
         <v>50</v>
       </c>
       <c r="E10">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="F10">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="G10">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="H10">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="I10">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="J10">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="K10">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L10">
-        <v>0.6233766233766234</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="M10">
-        <v>0.6956521739130435</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="N10">
-        <v>0.6575342465753424</v>
+        <v>0.7719298245614034</v>
       </c>
       <c r="O10">
-        <v>0.006938267212239779</v>
+        <v>0.003896103896103842</v>
       </c>
       <c r="P10">
-        <v>0.04347826086956519</v>
+        <v>0.01724137931034475</v>
       </c>
       <c r="Q10">
-        <v>0.02373142967393393</v>
+        <v>0.01086787765874853</v>
       </c>
       <c r="R10">
-        <v>0.0112554112554112</v>
+        <v>0.004983388704318867</v>
       </c>
       <c r="S10">
-        <v>0.06666666666666662</v>
+        <v>0.02325581395348827</v>
       </c>
       <c r="T10">
-        <v>0.0374429223744291</v>
+        <v>0.01427988576091376</v>
       </c>
       <c r="U10" t="s">
         <v>31</v>
@@ -1140,52 +1140,52 @@
         <v>50</v>
       </c>
       <c r="E11">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="F11">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="G11">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="H11">
-        <v>0.6164383561643836</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="I11">
-        <v>0.6521739130434783</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="J11">
-        <v>0.6338028169014085</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="K11">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L11">
-        <v>0.6233766233766234</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="M11">
-        <v>0.6956521739130435</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="N11">
-        <v>0.6575342465753424</v>
+        <v>0.7719298245614034</v>
       </c>
       <c r="O11">
-        <v>0.006938267212239779</v>
+        <v>0.003896103896103842</v>
       </c>
       <c r="P11">
-        <v>0.04347826086956519</v>
+        <v>0.01724137931034475</v>
       </c>
       <c r="Q11">
-        <v>0.02373142967393393</v>
+        <v>0.01086787765874853</v>
       </c>
       <c r="R11">
-        <v>0.0112554112554112</v>
+        <v>0.004983388704318867</v>
       </c>
       <c r="S11">
-        <v>0.06666666666666662</v>
+        <v>0.02325581395348827</v>
       </c>
       <c r="T11">
-        <v>0.0374429223744291</v>
+        <v>0.01427988576091376</v>
       </c>
       <c r="U11" t="s">
         <v>31</v>
@@ -1202,52 +1202,52 @@
         <v>50</v>
       </c>
       <c r="E12">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="G12">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="H12">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="I12">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="J12">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="K12">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L12">
-        <v>0.5638297872340425</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="M12">
-        <v>0.7681159420289855</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="N12">
-        <v>0.6503067484662577</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="O12">
-        <v>0.009612919764163008</v>
+        <v>0.00362590647661909</v>
       </c>
       <c r="P12">
-        <v>0.1014492753623188</v>
+        <v>0.06896551724137934</v>
       </c>
       <c r="Q12">
-        <v>0.04504359057152096</v>
+        <v>0.02400662251655628</v>
       </c>
       <c r="R12">
-        <v>0.01734505087881586</v>
+        <v>0.006929510155316482</v>
       </c>
       <c r="S12">
-        <v>0.1521739130434783</v>
+        <v>0.08888888888888892</v>
       </c>
       <c r="T12">
-        <v>0.07441984529207812</v>
+        <v>0.03841059602649004</v>
       </c>
       <c r="U12" t="s">
         <v>32</v>
@@ -1267,52 +1267,52 @@
         <v>50</v>
       </c>
       <c r="E13">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="G13">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="H13">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="I13">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="J13">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="K13">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L13">
-        <v>0.5591397849462365</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="M13">
-        <v>0.7536231884057971</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="N13">
-        <v>0.6419753086419753</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="O13">
-        <v>0.004922917476356981</v>
+        <v>0.00362590647661909</v>
       </c>
       <c r="P13">
-        <v>0.08695652173913049</v>
+        <v>0.06896551724137934</v>
       </c>
       <c r="Q13">
-        <v>0.03671215074723855</v>
+        <v>0.02400662251655628</v>
       </c>
       <c r="R13">
-        <v>0.008882655446470204</v>
+        <v>0.006929510155316482</v>
       </c>
       <c r="S13">
-        <v>0.1304347826086957</v>
+        <v>0.08888888888888892</v>
       </c>
       <c r="T13">
-        <v>0.06065485775630718</v>
+        <v>0.03841059602649004</v>
       </c>
       <c r="U13" t="s">
         <v>32</v>
@@ -1332,52 +1332,52 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="G14">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="H14">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="I14">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="J14">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="K14">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L14">
-        <v>0.5581395348837209</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="M14">
-        <v>0.6956521739130435</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="N14">
-        <v>0.6193548387096773</v>
+        <v>0.625</v>
       </c>
       <c r="O14">
-        <v>0.003922667413841396</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.02898550724637683</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.01409168081494061</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>0.007077856420626867</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>0.04347826086956524</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0.02328190743338014</v>
+        <v>0</v>
       </c>
       <c r="U14" t="s">
         <v>32</v>
@@ -1397,52 +1397,52 @@
         <v>50</v>
       </c>
       <c r="E15">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="G15">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="H15">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="I15">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="J15">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="K15">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L15">
-        <v>0.5581395348837209</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="M15">
-        <v>0.6956521739130435</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="N15">
-        <v>0.6193548387096773</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="O15">
-        <v>0.003922667413841396</v>
+        <v>0.008659079663532854</v>
       </c>
       <c r="P15">
-        <v>0.02898550724637683</v>
+        <v>0.08620689655172409</v>
       </c>
       <c r="Q15">
-        <v>0.01409168081494061</v>
+        <v>0.03289473684210531</v>
       </c>
       <c r="R15">
-        <v>0.007077856420626867</v>
+        <v>0.0165484633569739</v>
       </c>
       <c r="S15">
-        <v>0.04347826086956524</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="T15">
-        <v>0.02328190743338014</v>
+        <v>0.05263157894736849</v>
       </c>
       <c r="U15" t="s">
         <v>32</v>
@@ -1462,52 +1462,52 @@
         <v>50</v>
       </c>
       <c r="E16">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="G16">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="H16">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="I16">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="J16">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="K16">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L16">
-        <v>0.5581395348837209</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="M16">
-        <v>0.6956521739130435</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="N16">
-        <v>0.6193548387096773</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="O16">
-        <v>0.003922667413841396</v>
+        <v>0.00362590647661909</v>
       </c>
       <c r="P16">
-        <v>0.02898550724637683</v>
+        <v>0.06896551724137934</v>
       </c>
       <c r="Q16">
-        <v>0.01409168081494061</v>
+        <v>0.02400662251655628</v>
       </c>
       <c r="R16">
-        <v>0.007077856420626867</v>
+        <v>0.006929510155316482</v>
       </c>
       <c r="S16">
-        <v>0.04347826086956524</v>
+        <v>0.08888888888888892</v>
       </c>
       <c r="T16">
-        <v>0.02328190743338014</v>
+        <v>0.03841059602649004</v>
       </c>
       <c r="U16" t="s">
         <v>32</v>
@@ -1524,52 +1524,52 @@
         <v>50</v>
       </c>
       <c r="E17">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="G17">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="H17">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="I17">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="J17">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="K17">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L17">
-        <v>0.4864864864864865</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="M17">
-        <v>0.7826086956521739</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="N17">
-        <v>0.6000000000000001</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="O17">
-        <v>-0.06773038098339301</v>
+        <v>0.00362590647661909</v>
       </c>
       <c r="P17">
-        <v>0.1159420289855073</v>
+        <v>0.06896551724137934</v>
       </c>
       <c r="Q17">
-        <v>-0.005263157894736636</v>
+        <v>0.02400662251655628</v>
       </c>
       <c r="R17">
-        <v>-0.1222091656874265</v>
+        <v>0.006929510155316482</v>
       </c>
       <c r="S17">
-        <v>0.173913043478261</v>
+        <v>0.08888888888888892</v>
       </c>
       <c r="T17">
-        <v>-0.008695652173912705</v>
+        <v>0.03841059602649004</v>
       </c>
       <c r="U17" t="s">
         <v>32</v>
@@ -1589,52 +1589,52 @@
         <v>50</v>
       </c>
       <c r="E18">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="G18">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="H18">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="I18">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="J18">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="K18">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L18">
-        <v>0.4864864864864865</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="M18">
-        <v>0.7826086956521739</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="N18">
-        <v>0.6000000000000001</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="O18">
-        <v>-0.06773038098339301</v>
+        <v>0.00362590647661909</v>
       </c>
       <c r="P18">
-        <v>0.1159420289855073</v>
+        <v>0.06896551724137934</v>
       </c>
       <c r="Q18">
-        <v>-0.005263157894736636</v>
+        <v>0.02400662251655628</v>
       </c>
       <c r="R18">
-        <v>-0.1222091656874265</v>
+        <v>0.006929510155316482</v>
       </c>
       <c r="S18">
-        <v>0.173913043478261</v>
+        <v>0.08888888888888892</v>
       </c>
       <c r="T18">
-        <v>-0.008695652173912705</v>
+        <v>0.03841059602649004</v>
       </c>
       <c r="U18" t="s">
         <v>32</v>
@@ -1654,52 +1654,52 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="G19">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="H19">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="I19">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="J19">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="K19">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L19">
-        <v>0.5595238095238095</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="M19">
-        <v>0.6811594202898551</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="N19">
-        <v>0.6143790849673202</v>
+        <v>0.625</v>
       </c>
       <c r="O19">
-        <v>0.005306942053930008</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.01449275362318847</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.009115927072583463</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>0.009575569358178057</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>0.02173913043478271</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>0.0150610969025292</v>
+        <v>0</v>
       </c>
       <c r="U19" t="s">
         <v>32</v>
@@ -1719,52 +1719,52 @@
         <v>50</v>
       </c>
       <c r="E20">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="G20">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="H20">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="I20">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="J20">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="K20">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L20">
-        <v>0.5595238095238095</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="M20">
-        <v>0.6811594202898551</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="N20">
-        <v>0.6143790849673202</v>
+        <v>0.6442953020134228</v>
       </c>
       <c r="O20">
-        <v>0.005306942053930008</v>
+        <v>0.004216713519039073</v>
       </c>
       <c r="P20">
-        <v>0.01449275362318847</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="Q20">
-        <v>0.009115927072583463</v>
+        <v>0.01929530201342278</v>
       </c>
       <c r="R20">
-        <v>0.009575569358178057</v>
+        <v>0.008058608058608004</v>
       </c>
       <c r="S20">
-        <v>0.02173913043478271</v>
+        <v>0.06666666666666665</v>
       </c>
       <c r="T20">
-        <v>0.0150610969025292</v>
+        <v>0.03087248322147644</v>
       </c>
       <c r="U20" t="s">
         <v>32</v>
@@ -1784,52 +1784,52 @@
         <v>50</v>
       </c>
       <c r="E21">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="G21">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="H21">
-        <v>0.5542168674698795</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="I21">
-        <v>0.6666666666666666</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="J21">
-        <v>0.6052631578947367</v>
+        <v>0.625</v>
       </c>
       <c r="K21">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L21">
-        <v>0.5595238095238095</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="M21">
-        <v>0.6811594202898551</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="N21">
-        <v>0.6143790849673202</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="O21">
-        <v>0.005306942053930008</v>
+        <v>0.00362590647661909</v>
       </c>
       <c r="P21">
-        <v>0.01449275362318847</v>
+        <v>0.06896551724137934</v>
       </c>
       <c r="Q21">
-        <v>0.009115927072583463</v>
+        <v>0.02400662251655628</v>
       </c>
       <c r="R21">
-        <v>0.009575569358178057</v>
+        <v>0.006929510155316482</v>
       </c>
       <c r="S21">
-        <v>0.02173913043478271</v>
+        <v>0.08888888888888892</v>
       </c>
       <c r="T21">
-        <v>0.0150610969025292</v>
+        <v>0.03841059602649004</v>
       </c>
       <c r="U21" t="s">
         <v>32</v>
@@ -1846,52 +1846,52 @@
         <v>50</v>
       </c>
       <c r="E22">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F22">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="G22">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="H22">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I22">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="J22">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="K22">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L22">
-        <v>0.8048780487804879</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="M22">
-        <v>0.4782608695652174</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="N22">
-        <v>0.6</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.02032520325203246</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.08620689655172409</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>0.06877283473028151</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>0.02439024390243896</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.1077441077441077</v>
       </c>
       <c r="U22" t="s">
         <v>33</v>
@@ -1911,52 +1911,52 @@
         <v>50</v>
       </c>
       <c r="E23">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F23">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="G23">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="H23">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I23">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="J23">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="K23">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L23">
-        <v>0.8048780487804879</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="M23">
-        <v>0.4782608695652174</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="N23">
-        <v>0.6</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.02032520325203246</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.08620689655172409</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>0.06877283473028151</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>0.02439024390243896</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>0.1077441077441077</v>
       </c>
       <c r="U23" t="s">
         <v>33</v>
@@ -1976,52 +1976,52 @@
         <v>50</v>
       </c>
       <c r="E24">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F24">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="G24">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="H24">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I24">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="J24">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="K24">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L24">
-        <v>0.8095238095238095</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M24">
-        <v>0.4927536231884058</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="N24">
-        <v>0.6126126126126127</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="O24">
-        <v>0.004645760743321681</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.01449275362318841</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.01261261261261271</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>0.005772005772005724</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>0.03030303030303032</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>0.02102102102102118</v>
+        <v>0</v>
       </c>
       <c r="U24" t="s">
         <v>33</v>
@@ -2041,52 +2041,52 @@
         <v>50</v>
       </c>
       <c r="E25">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F25">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="G25">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="H25">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I25">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="J25">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="K25">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L25">
-        <v>0.8095238095238095</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="M25">
-        <v>0.4927536231884058</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="N25">
-        <v>0.6126126126126127</v>
+        <v>0.7326732673267328</v>
       </c>
       <c r="O25">
-        <v>0.004645760743321681</v>
+        <v>0.02713178294573637</v>
       </c>
       <c r="P25">
-        <v>0.01449275362318841</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="Q25">
-        <v>0.01261261261261271</v>
+        <v>0.0943753949863072</v>
       </c>
       <c r="R25">
-        <v>0.005772005772005724</v>
+        <v>0.03255813953488364</v>
       </c>
       <c r="S25">
-        <v>0.03030303030303032</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="T25">
-        <v>0.02102102102102118</v>
+        <v>0.1478547854785479</v>
       </c>
       <c r="U25" t="s">
         <v>33</v>
@@ -2106,52 +2106,52 @@
         <v>50</v>
       </c>
       <c r="E26">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F26">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="G26">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="H26">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I26">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="J26">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="K26">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L26">
-        <v>0.8095238095238095</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="M26">
-        <v>0.4927536231884058</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="N26">
-        <v>0.6126126126126127</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="O26">
-        <v>0.004645760743321681</v>
+        <v>0.02032520325203246</v>
       </c>
       <c r="P26">
-        <v>0.01449275362318841</v>
+        <v>0.08620689655172409</v>
       </c>
       <c r="Q26">
-        <v>0.01261261261261271</v>
+        <v>0.06877283473028151</v>
       </c>
       <c r="R26">
-        <v>0.005772005772005724</v>
+        <v>0.02439024390243896</v>
       </c>
       <c r="S26">
-        <v>0.03030303030303032</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="T26">
-        <v>0.02102102102102118</v>
+        <v>0.1077441077441077</v>
       </c>
       <c r="U26" t="s">
         <v>33</v>
@@ -2168,52 +2168,52 @@
         <v>50</v>
       </c>
       <c r="E27">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F27">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="G27">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="H27">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I27">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="J27">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="K27">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L27">
-        <v>0.8367346938775511</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M27">
-        <v>0.5942028985507246</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="N27">
-        <v>0.6949152542372882</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="O27">
-        <v>0.03185664509706321</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>0.1159420289855072</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>0.09491525423728819</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>0.03957946815089671</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>0.2424242424242423</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>0.1581920903954803</v>
+        <v>0</v>
       </c>
       <c r="U27" t="s">
         <v>33</v>
@@ -2233,52 +2233,52 @@
         <v>50</v>
       </c>
       <c r="E28">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F28">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="G28">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="H28">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I28">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="J28">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="K28">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L28">
-        <v>0.8297872340425532</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="M28">
-        <v>0.5652173913043478</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="N28">
-        <v>0.6724137931034482</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O28">
-        <v>0.02490918526206531</v>
+        <v>0.00877192982456132</v>
       </c>
       <c r="P28">
-        <v>0.08695652173913038</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="Q28">
-        <v>0.0724137931034482</v>
+        <v>0.02836879432624106</v>
       </c>
       <c r="R28">
-        <v>0.0309477756286266</v>
+        <v>0.01052631578947358</v>
       </c>
       <c r="S28">
-        <v>0.1818181818181817</v>
+        <v>0.06666666666666658</v>
       </c>
       <c r="T28">
-        <v>0.1206896551724137</v>
+        <v>0.04444444444444434</v>
       </c>
       <c r="U28" t="s">
         <v>33</v>
@@ -2298,52 +2298,52 @@
         <v>50</v>
       </c>
       <c r="E29">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F29">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="G29">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="H29">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I29">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="J29">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="K29">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L29">
-        <v>0.813953488372093</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="M29">
-        <v>0.5072463768115942</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="N29">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O29">
-        <v>0.009075439591605172</v>
+        <v>0.00877192982456132</v>
       </c>
       <c r="P29">
-        <v>0.02898550724637683</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="Q29">
-        <v>0.02500000000000002</v>
+        <v>0.02836879432624106</v>
       </c>
       <c r="R29">
-        <v>0.01127554615926703</v>
+        <v>0.01052631578947358</v>
       </c>
       <c r="S29">
-        <v>0.06060606060606064</v>
+        <v>0.06666666666666658</v>
       </c>
       <c r="T29">
-        <v>0.04166666666666671</v>
+        <v>0.04444444444444434</v>
       </c>
       <c r="U29" t="s">
         <v>33</v>
@@ -2363,52 +2363,52 @@
         <v>50</v>
       </c>
       <c r="E30">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F30">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="G30">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="H30">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I30">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="J30">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="K30">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L30">
-        <v>0.813953488372093</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="M30">
-        <v>0.5072463768115942</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="N30">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O30">
-        <v>0.009075439591605172</v>
+        <v>0.00877192982456132</v>
       </c>
       <c r="P30">
-        <v>0.02898550724637683</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="Q30">
-        <v>0.02500000000000002</v>
+        <v>0.02836879432624106</v>
       </c>
       <c r="R30">
-        <v>0.01127554615926703</v>
+        <v>0.01052631578947358</v>
       </c>
       <c r="S30">
-        <v>0.06060606060606064</v>
+        <v>0.06666666666666658</v>
       </c>
       <c r="T30">
-        <v>0.04166666666666671</v>
+        <v>0.04444444444444434</v>
       </c>
       <c r="U30" t="s">
         <v>33</v>
@@ -2428,52 +2428,52 @@
         <v>50</v>
       </c>
       <c r="E31">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F31">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="G31">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="H31">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I31">
-        <v>0.4782608695652174</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="J31">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="K31">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L31">
-        <v>0.813953488372093</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M31">
-        <v>0.5072463768115942</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="N31">
-        <v>0.625</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="O31">
-        <v>0.009075439591605172</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>0.02898550724637683</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>0.02500000000000002</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>0.01127554615926703</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>0.06060606060606064</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>0.04166666666666671</v>
+        <v>0</v>
       </c>
       <c r="U31" t="s">
         <v>33</v>
@@ -2490,52 +2490,52 @@
         <v>50</v>
       </c>
       <c r="E32">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="F32">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="G32">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="H32">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="I32">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="J32">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="K32">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L32">
-        <v>0.4583333333333333</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="M32">
-        <v>0.7971014492753623</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="N32">
-        <v>0.582010582010582</v>
+        <v>0.6265060240963856</v>
       </c>
       <c r="O32">
-        <v>0.2916666666666667</v>
+        <v>0.2148148148148148</v>
       </c>
       <c r="P32">
-        <v>0.7826086956521739</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="Q32">
-        <v>0.5553439153439154</v>
+        <v>0.5169169830004952</v>
       </c>
       <c r="R32">
-        <v>1.750000000000001</v>
+        <v>0.8055555555555558</v>
       </c>
       <c r="S32">
-        <v>54.00000000000002</v>
+        <v>12</v>
       </c>
       <c r="T32">
-        <v>20.82539682539688</v>
+        <v>4.716867469879519</v>
       </c>
       <c r="U32" t="s">
         <v>34</v>
@@ -2555,52 +2555,52 @@
         <v>50</v>
       </c>
       <c r="E33">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="F33">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="G33">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="H33">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="I33">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="J33">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="K33">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L33">
-        <v>0.4583333333333333</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="M33">
-        <v>0.7971014492753623</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="N33">
-        <v>0.582010582010582</v>
+        <v>0.6265060240963856</v>
       </c>
       <c r="O33">
-        <v>0.2916666666666667</v>
+        <v>0.2148148148148148</v>
       </c>
       <c r="P33">
-        <v>0.7826086956521739</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="Q33">
-        <v>0.5553439153439154</v>
+        <v>0.5169169830004952</v>
       </c>
       <c r="R33">
-        <v>1.750000000000001</v>
+        <v>0.8055555555555558</v>
       </c>
       <c r="S33">
-        <v>54.00000000000002</v>
+        <v>12</v>
       </c>
       <c r="T33">
-        <v>20.82539682539688</v>
+        <v>4.716867469879519</v>
       </c>
       <c r="U33" t="s">
         <v>34</v>
@@ -2620,52 +2620,52 @@
         <v>50</v>
       </c>
       <c r="E34">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="F34">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="G34">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="H34">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="I34">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="J34">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="K34">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L34">
-        <v>0.2678571428571428</v>
+        <v>0.3032786885245902</v>
       </c>
       <c r="M34">
-        <v>0.4347826086956522</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="N34">
-        <v>0.3314917127071823</v>
+        <v>0.4111111111111111</v>
       </c>
       <c r="O34">
-        <v>0.1011904761904762</v>
+        <v>0.03661202185792356</v>
       </c>
       <c r="P34">
-        <v>0.4202898550724637</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="Q34">
-        <v>0.3048250460405157</v>
+        <v>0.3015220700152207</v>
       </c>
       <c r="R34">
-        <v>0.6071428571428578</v>
+        <v>0.1372950819672134</v>
       </c>
       <c r="S34">
-        <v>29.00000000000001</v>
+        <v>8.250000000000002</v>
       </c>
       <c r="T34">
-        <v>11.43093922651937</v>
+        <v>2.751388888888889</v>
       </c>
       <c r="U34" t="s">
         <v>34</v>
@@ -2685,52 +2685,52 @@
         <v>50</v>
       </c>
       <c r="E35">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="F35">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="G35">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="H35">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="I35">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="J35">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="K35">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L35">
-        <v>0.2678571428571428</v>
+        <v>0.4951456310679612</v>
       </c>
       <c r="M35">
-        <v>0.4347826086956522</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="N35">
-        <v>0.3314917127071823</v>
+        <v>0.6335403726708075</v>
       </c>
       <c r="O35">
-        <v>0.1011904761904762</v>
+        <v>0.2284789644012946</v>
       </c>
       <c r="P35">
-        <v>0.4202898550724637</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="Q35">
-        <v>0.3048250460405157</v>
+        <v>0.5239513315749171</v>
       </c>
       <c r="R35">
-        <v>0.6071428571428578</v>
+        <v>0.8567961165048548</v>
       </c>
       <c r="S35">
-        <v>29.00000000000001</v>
+        <v>11.75</v>
       </c>
       <c r="T35">
-        <v>11.43093922651937</v>
+        <v>4.781055900621119</v>
       </c>
       <c r="U35" t="s">
         <v>34</v>
@@ -2750,52 +2750,52 @@
         <v>50</v>
       </c>
       <c r="E36">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="F36">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="G36">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="H36">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="I36">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="J36">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="K36">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L36">
-        <v>0.2678571428571428</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="M36">
-        <v>0.4347826086956522</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="N36">
-        <v>0.3314917127071823</v>
+        <v>0.6265060240963856</v>
       </c>
       <c r="O36">
-        <v>0.1011904761904762</v>
+        <v>0.2148148148148148</v>
       </c>
       <c r="P36">
-        <v>0.4202898550724637</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="Q36">
-        <v>0.3048250460405157</v>
+        <v>0.5169169830004952</v>
       </c>
       <c r="R36">
-        <v>0.6071428571428578</v>
+        <v>0.8055555555555558</v>
       </c>
       <c r="S36">
-        <v>29.00000000000001</v>
+        <v>12</v>
       </c>
       <c r="T36">
-        <v>11.43093922651937</v>
+        <v>4.716867469879519</v>
       </c>
       <c r="U36" t="s">
         <v>34</v>
@@ -2812,52 +2812,52 @@
         <v>50</v>
       </c>
       <c r="E37">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="F37">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="G37">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="H37">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="I37">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="J37">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="K37">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L37">
-        <v>0.4951456310679612</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="M37">
-        <v>0.7391304347826086</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="N37">
-        <v>0.5930232558139534</v>
+        <v>0.6369426751592357</v>
       </c>
       <c r="O37">
-        <v>0.3284789644012945</v>
+        <v>0.2383838383838385</v>
       </c>
       <c r="P37">
-        <v>0.7246376811594203</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="Q37">
-        <v>0.5663565891472868</v>
+        <v>0.5273536340633453</v>
       </c>
       <c r="R37">
-        <v>1.970873786407768</v>
+        <v>0.8939393939393945</v>
       </c>
       <c r="S37">
-        <v>50.00000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="T37">
-        <v>21.23837209302331</v>
+        <v>4.812101910828027</v>
       </c>
       <c r="U37" t="s">
         <v>34</v>
@@ -2877,52 +2877,52 @@
         <v>50</v>
       </c>
       <c r="E38">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="F38">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="G38">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="H38">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="I38">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="J38">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="K38">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L38">
-        <v>0.4951456310679612</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="M38">
-        <v>0.7391304347826086</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="N38">
-        <v>0.5930232558139534</v>
+        <v>0.6369426751592357</v>
       </c>
       <c r="O38">
-        <v>0.3284789644012945</v>
+        <v>0.2383838383838385</v>
       </c>
       <c r="P38">
-        <v>0.7246376811594203</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="Q38">
-        <v>0.5663565891472868</v>
+        <v>0.5273536340633453</v>
       </c>
       <c r="R38">
-        <v>1.970873786407768</v>
+        <v>0.8939393939393945</v>
       </c>
       <c r="S38">
-        <v>50.00000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="T38">
-        <v>21.23837209302331</v>
+        <v>4.812101910828027</v>
       </c>
       <c r="U38" t="s">
         <v>34</v>
@@ -2942,52 +2942,52 @@
         <v>50</v>
       </c>
       <c r="E39">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="F39">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="G39">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="H39">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="I39">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="J39">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="K39">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L39">
-        <v>0.3653846153846154</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="M39">
-        <v>0.2753623188405797</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="N39">
-        <v>0.3140495867768595</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="O39">
-        <v>0.1987179487179488</v>
+        <v>0.02745098039215693</v>
       </c>
       <c r="P39">
-        <v>0.2608695652173913</v>
+        <v>0.01724137931034485</v>
       </c>
       <c r="Q39">
-        <v>0.2873829201101929</v>
+        <v>0.02374429223744293</v>
       </c>
       <c r="R39">
-        <v>1.192307692307693</v>
+        <v>0.1029411764705885</v>
       </c>
       <c r="S39">
-        <v>18.00000000000001</v>
+        <v>0.2500000000000003</v>
       </c>
       <c r="T39">
-        <v>10.77685950413226</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="U39" t="s">
         <v>34</v>
@@ -3007,52 +3007,52 @@
         <v>50</v>
       </c>
       <c r="E40">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="F40">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="G40">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="H40">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="I40">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="J40">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="K40">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L40">
-        <v>0.3653846153846154</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="M40">
-        <v>0.2753623188405797</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="N40">
-        <v>0.3140495867768595</v>
+        <v>0.6369426751592357</v>
       </c>
       <c r="O40">
-        <v>0.1987179487179488</v>
+        <v>0.2383838383838385</v>
       </c>
       <c r="P40">
-        <v>0.2608695652173913</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="Q40">
-        <v>0.2873829201101929</v>
+        <v>0.5273536340633453</v>
       </c>
       <c r="R40">
-        <v>1.192307692307693</v>
+        <v>0.8939393939393945</v>
       </c>
       <c r="S40">
-        <v>18.00000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="T40">
-        <v>10.77685950413226</v>
+        <v>4.812101910828027</v>
       </c>
       <c r="U40" t="s">
         <v>34</v>
@@ -3072,52 +3072,52 @@
         <v>50</v>
       </c>
       <c r="E41">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="F41">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="G41">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="H41">
-        <v>0.1666666666666666</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="I41">
-        <v>0.0144927536231884</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="J41">
-        <v>0.0266666666666666</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="K41">
-        <v>0.1449579831932773</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L41">
-        <v>0.3653846153846154</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="M41">
-        <v>0.2753623188405797</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="N41">
-        <v>0.3140495867768595</v>
+        <v>0.6369426751592357</v>
       </c>
       <c r="O41">
-        <v>0.1987179487179488</v>
+        <v>0.2383838383838385</v>
       </c>
       <c r="P41">
-        <v>0.2608695652173913</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="Q41">
-        <v>0.2873829201101929</v>
+        <v>0.5273536340633453</v>
       </c>
       <c r="R41">
-        <v>1.192307692307693</v>
+        <v>0.8939393939393945</v>
       </c>
       <c r="S41">
-        <v>18.00000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="T41">
-        <v>10.77685950413226</v>
+        <v>4.812101910828027</v>
       </c>
       <c r="U41" t="s">
         <v>34</v>

--- a/analysis/edcr/out/top_f1/copper_shift_new_20_results.xlsx
+++ b/analysis/edcr/out/top_f1/copper_shift_new_20_results.xlsx
@@ -555,7 +555,7 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E2">
         <v>0.7818181818181819</v>
@@ -620,7 +620,7 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E3">
         <v>0.7818181818181819</v>
@@ -685,7 +685,7 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E4">
         <v>0.7818181818181819</v>
@@ -750,7 +750,7 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E5">
         <v>0.7818181818181819</v>
@@ -815,7 +815,7 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E6">
         <v>0.7818181818181819</v>
@@ -877,7 +877,7 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E7">
         <v>0.7818181818181819</v>
@@ -942,7 +942,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E8">
         <v>0.7818181818181819</v>
@@ -1007,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E9">
         <v>0.7818181818181819</v>
@@ -1072,7 +1072,7 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E10">
         <v>0.7818181818181819</v>
@@ -1137,7 +1137,7 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E11">
         <v>0.7818181818181819</v>
@@ -1199,7 +1199,7 @@
         <v>29</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E12">
         <v>0.5232558139534884</v>
@@ -1223,31 +1223,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L12">
-        <v>0.5268817204301075</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="M12">
-        <v>0.8448275862068966</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="N12">
-        <v>0.6490066225165563</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="O12">
-        <v>0.00362590647661909</v>
+        <v>-0.04248658318425763</v>
       </c>
       <c r="P12">
-        <v>0.06896551724137934</v>
+        <v>0.08620689655172409</v>
       </c>
       <c r="Q12">
-        <v>0.02400662251655628</v>
+        <v>-0.007716049382716084</v>
       </c>
       <c r="R12">
-        <v>0.006929510155316482</v>
+        <v>-0.08119658119658124</v>
       </c>
       <c r="S12">
-        <v>0.08888888888888892</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="T12">
-        <v>0.03841059602649004</v>
+        <v>-0.01234567901234573</v>
       </c>
       <c r="U12" t="s">
         <v>32</v>
@@ -1264,7 +1264,7 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E13">
         <v>0.5232558139534884</v>
@@ -1288,31 +1288,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L13">
-        <v>0.5268817204301075</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="M13">
-        <v>0.8448275862068966</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="N13">
-        <v>0.6490066225165563</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="O13">
-        <v>0.00362590647661909</v>
+        <v>-0.04248658318425763</v>
       </c>
       <c r="P13">
-        <v>0.06896551724137934</v>
+        <v>0.08620689655172409</v>
       </c>
       <c r="Q13">
-        <v>0.02400662251655628</v>
+        <v>-0.007716049382716084</v>
       </c>
       <c r="R13">
-        <v>0.006929510155316482</v>
+        <v>-0.08119658119658124</v>
       </c>
       <c r="S13">
-        <v>0.08888888888888892</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="T13">
-        <v>0.03841059602649004</v>
+        <v>-0.01234567901234573</v>
       </c>
       <c r="U13" t="s">
         <v>32</v>
@@ -1329,7 +1329,7 @@
         <v>29</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E14">
         <v>0.5232558139534884</v>
@@ -1394,7 +1394,7 @@
         <v>29</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E15">
         <v>0.5232558139534884</v>
@@ -1459,7 +1459,7 @@
         <v>29</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E16">
         <v>0.5232558139534884</v>
@@ -1483,31 +1483,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L16">
-        <v>0.5268817204301075</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="M16">
-        <v>0.8448275862068966</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="N16">
-        <v>0.6490066225165563</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="O16">
-        <v>0.00362590647661909</v>
+        <v>-0.04248658318425763</v>
       </c>
       <c r="P16">
-        <v>0.06896551724137934</v>
+        <v>0.08620689655172409</v>
       </c>
       <c r="Q16">
-        <v>0.02400662251655628</v>
+        <v>-0.007716049382716084</v>
       </c>
       <c r="R16">
-        <v>0.006929510155316482</v>
+        <v>-0.08119658119658124</v>
       </c>
       <c r="S16">
-        <v>0.08888888888888892</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="T16">
-        <v>0.03841059602649004</v>
+        <v>-0.01234567901234573</v>
       </c>
       <c r="U16" t="s">
         <v>32</v>
@@ -1521,7 +1521,7 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E17">
         <v>0.5232558139534884</v>
@@ -1586,7 +1586,7 @@
         <v>30</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E18">
         <v>0.5232558139534884</v>
@@ -1651,7 +1651,7 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E19">
         <v>0.5232558139534884</v>
@@ -1716,7 +1716,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E20">
         <v>0.5232558139534884</v>
@@ -1781,7 +1781,7 @@
         <v>30</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E21">
         <v>0.5232558139534884</v>
@@ -1843,7 +1843,7 @@
         <v>29</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E22">
         <v>0.8333333333333334</v>
@@ -1867,31 +1867,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L22">
-        <v>0.8536585365853658</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="M22">
-        <v>0.603448275862069</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="N22">
-        <v>0.7070707070707071</v>
+        <v>0.7326732673267328</v>
       </c>
       <c r="O22">
-        <v>0.02032520325203246</v>
+        <v>0.02713178294573637</v>
       </c>
       <c r="P22">
-        <v>0.08620689655172409</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="Q22">
-        <v>0.06877283473028151</v>
+        <v>0.0943753949863072</v>
       </c>
       <c r="R22">
-        <v>0.02439024390243896</v>
+        <v>0.03255813953488364</v>
       </c>
       <c r="S22">
-        <v>0.1666666666666665</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="T22">
-        <v>0.1077441077441077</v>
+        <v>0.1478547854785479</v>
       </c>
       <c r="U22" t="s">
         <v>33</v>
@@ -1908,7 +1908,7 @@
         <v>29</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E23">
         <v>0.8333333333333334</v>
@@ -1932,31 +1932,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L23">
-        <v>0.8536585365853658</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="M23">
-        <v>0.603448275862069</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="N23">
-        <v>0.7070707070707071</v>
+        <v>0.7326732673267328</v>
       </c>
       <c r="O23">
-        <v>0.02032520325203246</v>
+        <v>0.02713178294573637</v>
       </c>
       <c r="P23">
-        <v>0.08620689655172409</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="Q23">
-        <v>0.06877283473028151</v>
+        <v>0.0943753949863072</v>
       </c>
       <c r="R23">
-        <v>0.02439024390243896</v>
+        <v>0.03255813953488364</v>
       </c>
       <c r="S23">
-        <v>0.1666666666666665</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="T23">
-        <v>0.1077441077441077</v>
+        <v>0.1478547854785479</v>
       </c>
       <c r="U23" t="s">
         <v>33</v>
@@ -1973,7 +1973,7 @@
         <v>29</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E24">
         <v>0.8333333333333334</v>
@@ -2038,7 +2038,7 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E25">
         <v>0.8333333333333334</v>
@@ -2103,7 +2103,7 @@
         <v>29</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E26">
         <v>0.8333333333333334</v>
@@ -2127,31 +2127,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L26">
-        <v>0.8536585365853658</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="M26">
-        <v>0.603448275862069</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="N26">
-        <v>0.7070707070707071</v>
+        <v>0.7326732673267328</v>
       </c>
       <c r="O26">
-        <v>0.02032520325203246</v>
+        <v>0.02713178294573637</v>
       </c>
       <c r="P26">
-        <v>0.08620689655172409</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="Q26">
-        <v>0.06877283473028151</v>
+        <v>0.0943753949863072</v>
       </c>
       <c r="R26">
-        <v>0.02439024390243896</v>
+        <v>0.03255813953488364</v>
       </c>
       <c r="S26">
-        <v>0.1666666666666665</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="T26">
-        <v>0.1077441077441077</v>
+        <v>0.1478547854785479</v>
       </c>
       <c r="U26" t="s">
         <v>33</v>
@@ -2165,7 +2165,7 @@
         <v>30</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E27">
         <v>0.8333333333333334</v>
@@ -2189,31 +2189,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L27">
-        <v>0.8333333333333334</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="M27">
-        <v>0.5172413793103449</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="N27">
-        <v>0.6382978723404256</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.00877192982456132</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.02836879432624106</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>0.01052631578947358</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>0.06666666666666658</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>0.04444444444444434</v>
       </c>
       <c r="U27" t="s">
         <v>33</v>
@@ -2230,7 +2230,7 @@
         <v>30</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E28">
         <v>0.8333333333333334</v>
@@ -2295,7 +2295,7 @@
         <v>30</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E29">
         <v>0.8333333333333334</v>
@@ -2360,7 +2360,7 @@
         <v>30</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E30">
         <v>0.8333333333333334</v>
@@ -2425,7 +2425,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E31">
         <v>0.8333333333333334</v>
@@ -2449,31 +2449,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L31">
-        <v>0.8333333333333334</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="M31">
-        <v>0.5172413793103449</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="N31">
-        <v>0.6382978723404256</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.00877192982456132</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>0.02836879432624106</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>0.01052631578947358</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>0.06666666666666658</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>0.04444444444444434</v>
       </c>
       <c r="U31" t="s">
         <v>33</v>
@@ -2487,7 +2487,7 @@
         <v>29</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E32">
         <v>0.2666666666666666</v>
@@ -2511,31 +2511,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L32">
-        <v>0.4814814814814815</v>
+        <v>0.3795620437956204</v>
       </c>
       <c r="M32">
         <v>0.896551724137931</v>
       </c>
       <c r="N32">
-        <v>0.6265060240963856</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O32">
-        <v>0.2148148148148148</v>
+        <v>0.1128953771289538</v>
       </c>
       <c r="P32">
         <v>0.8275862068965517</v>
       </c>
       <c r="Q32">
-        <v>0.5169169830004952</v>
+        <v>0.4237442922374429</v>
       </c>
       <c r="R32">
-        <v>0.8055555555555558</v>
+        <v>0.4233576642335769</v>
       </c>
       <c r="S32">
         <v>12</v>
       </c>
       <c r="T32">
-        <v>4.716867469879519</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="U32" t="s">
         <v>34</v>
@@ -2552,7 +2552,7 @@
         <v>29</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E33">
         <v>0.2666666666666666</v>
@@ -2576,31 +2576,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L33">
-        <v>0.4814814814814815</v>
+        <v>0.3785714285714286</v>
       </c>
       <c r="M33">
-        <v>0.896551724137931</v>
+        <v>0.9137931034482759</v>
       </c>
       <c r="N33">
-        <v>0.6265060240963856</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="O33">
-        <v>0.2148148148148148</v>
+        <v>0.111904761904762</v>
       </c>
       <c r="P33">
-        <v>0.8275862068965517</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="Q33">
-        <v>0.5169169830004952</v>
+        <v>0.425764494257645</v>
       </c>
       <c r="R33">
-        <v>0.8055555555555558</v>
+        <v>0.4196428571428574</v>
       </c>
       <c r="S33">
-        <v>12</v>
+        <v>12.25</v>
       </c>
       <c r="T33">
-        <v>4.716867469879519</v>
+        <v>3.88510101010101</v>
       </c>
       <c r="U33" t="s">
         <v>34</v>
@@ -2617,7 +2617,7 @@
         <v>29</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E34">
         <v>0.2666666666666666</v>
@@ -2641,31 +2641,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L34">
-        <v>0.3032786885245902</v>
+        <v>0.2936507936507937</v>
       </c>
       <c r="M34">
         <v>0.6379310344827587</v>
       </c>
       <c r="N34">
-        <v>0.4111111111111111</v>
+        <v>0.4021739130434783</v>
       </c>
       <c r="O34">
-        <v>0.03661202185792356</v>
+        <v>0.02698412698412705</v>
       </c>
       <c r="P34">
         <v>0.5689655172413793</v>
       </c>
       <c r="Q34">
-        <v>0.3015220700152207</v>
+        <v>0.2925848719475879</v>
       </c>
       <c r="R34">
-        <v>0.1372950819672134</v>
+        <v>0.1011904761904765</v>
       </c>
       <c r="S34">
         <v>8.250000000000002</v>
       </c>
       <c r="T34">
-        <v>2.751388888888889</v>
+        <v>2.669836956521739</v>
       </c>
       <c r="U34" t="s">
         <v>34</v>
@@ -2682,7 +2682,7 @@
         <v>29</v>
       </c>
       <c r="D35">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E35">
         <v>0.2666666666666666</v>
@@ -2706,31 +2706,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L35">
-        <v>0.4951456310679612</v>
+        <v>0.3537414965986395</v>
       </c>
       <c r="M35">
-        <v>0.8793103448275862</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="N35">
-        <v>0.6335403726708075</v>
+        <v>0.5073170731707317</v>
       </c>
       <c r="O35">
-        <v>0.2284789644012946</v>
+        <v>0.08707482993197285</v>
       </c>
       <c r="P35">
-        <v>0.8103448275862069</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="Q35">
-        <v>0.5239513315749171</v>
+        <v>0.3977280320748413</v>
       </c>
       <c r="R35">
-        <v>0.8567961165048548</v>
+        <v>0.3265306122448983</v>
       </c>
       <c r="S35">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="T35">
-        <v>4.781055900621119</v>
+        <v>3.629268292682927</v>
       </c>
       <c r="U35" t="s">
         <v>34</v>
@@ -2747,7 +2747,7 @@
         <v>29</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E36">
         <v>0.2666666666666666</v>
@@ -2771,31 +2771,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L36">
-        <v>0.4814814814814815</v>
+        <v>0.3795620437956204</v>
       </c>
       <c r="M36">
         <v>0.896551724137931</v>
       </c>
       <c r="N36">
-        <v>0.6265060240963856</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O36">
-        <v>0.2148148148148148</v>
+        <v>0.1128953771289538</v>
       </c>
       <c r="P36">
         <v>0.8275862068965517</v>
       </c>
       <c r="Q36">
-        <v>0.5169169830004952</v>
+        <v>0.4237442922374429</v>
       </c>
       <c r="R36">
-        <v>0.8055555555555558</v>
+        <v>0.4233576642335769</v>
       </c>
       <c r="S36">
         <v>12</v>
       </c>
       <c r="T36">
-        <v>4.716867469879519</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="U36" t="s">
         <v>34</v>
@@ -2809,7 +2809,7 @@
         <v>30</v>
       </c>
       <c r="D37">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E37">
         <v>0.2666666666666666</v>
@@ -2833,31 +2833,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L37">
-        <v>0.5050505050505051</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="M37">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="N37">
-        <v>0.6369426751592357</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="O37">
-        <v>0.2383838383838385</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="P37">
-        <v>0.793103448275862</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="Q37">
-        <v>0.5273536340633453</v>
+        <v>0.4156634841566349</v>
       </c>
       <c r="R37">
-        <v>0.8939393939393945</v>
+        <v>0.3928571428571432</v>
       </c>
       <c r="S37">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="T37">
-        <v>4.812101910828027</v>
+        <v>3.792929292929294</v>
       </c>
       <c r="U37" t="s">
         <v>34</v>
@@ -2874,7 +2874,7 @@
         <v>30</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E38">
         <v>0.2666666666666666</v>
@@ -2898,31 +2898,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L38">
-        <v>0.5050505050505051</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="M38">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="N38">
-        <v>0.6369426751592357</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="O38">
-        <v>0.2383838383838385</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="P38">
-        <v>0.793103448275862</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="Q38">
-        <v>0.5273536340633453</v>
+        <v>0.4156634841566349</v>
       </c>
       <c r="R38">
-        <v>0.8939393939393945</v>
+        <v>0.3928571428571432</v>
       </c>
       <c r="S38">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="T38">
-        <v>4.812101910828027</v>
+        <v>3.792929292929294</v>
       </c>
       <c r="U38" t="s">
         <v>34</v>
@@ -2939,7 +2939,7 @@
         <v>30</v>
       </c>
       <c r="D39">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E39">
         <v>0.2666666666666666</v>
@@ -3004,7 +3004,7 @@
         <v>30</v>
       </c>
       <c r="D40">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E40">
         <v>0.2666666666666666</v>
@@ -3028,31 +3028,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L40">
-        <v>0.5050505050505051</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="M40">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="N40">
-        <v>0.6369426751592357</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="O40">
-        <v>0.2383838383838385</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="P40">
-        <v>0.793103448275862</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="Q40">
-        <v>0.5273536340633453</v>
+        <v>0.4156634841566349</v>
       </c>
       <c r="R40">
-        <v>0.8939393939393945</v>
+        <v>0.3928571428571432</v>
       </c>
       <c r="S40">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="T40">
-        <v>4.812101910828027</v>
+        <v>3.792929292929294</v>
       </c>
       <c r="U40" t="s">
         <v>34</v>
@@ -3069,7 +3069,7 @@
         <v>30</v>
       </c>
       <c r="D41">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E41">
         <v>0.2666666666666666</v>
@@ -3093,31 +3093,31 @@
         <v>0.1563342318059299</v>
       </c>
       <c r="L41">
-        <v>0.5050505050505051</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="M41">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="N41">
-        <v>0.6369426751592357</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="O41">
-        <v>0.2383838383838385</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="P41">
-        <v>0.793103448275862</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="Q41">
-        <v>0.5273536340633453</v>
+        <v>0.4156634841566349</v>
       </c>
       <c r="R41">
-        <v>0.8939393939393945</v>
+        <v>0.3928571428571432</v>
       </c>
       <c r="S41">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="T41">
-        <v>4.812101910828027</v>
+        <v>3.792929292929294</v>
       </c>
       <c r="U41" t="s">
         <v>34</v>
